--- a/studies/Laborstudie ProVisioNET/SRI/Kodierschema_SRI.xlsx
+++ b/studies/Laborstudie ProVisioNET/SRI/Kodierschema_SRI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/studies/Laborstudie ProVisioNET/SRI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\studies\Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93D9C11F-97CD-4256-BCE3-FEB19CA4E8AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{93D9C11F-97CD-4256-BCE3-FEB19CA4E8AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{C135E16D-8E7D-4EFE-BF7E-0ABE53222BBA}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11220" xr2:uid="{ECFD9030-D81A-4832-8358-84AEA871CE62}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="88">
   <si>
     <t>Störung</t>
   </si>
@@ -33,12 +33,6 @@
     <t>Reflexionsmodus</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Ankerbeispiel</t>
-  </si>
-  <si>
     <t>Wahrnehmungsfokus</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>Schüler:innen</t>
   </si>
   <si>
-    <t>Klassenraum_Anderes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Begründen des Aufmerksamkeitsfokus </t>
   </si>
   <si>
@@ -171,9 +162,6 @@
     <t>Abruf von Fachwissen</t>
   </si>
   <si>
-    <t>Abruf von päadagogischen Fachwissen</t>
-  </si>
-  <si>
     <t>Selbstüberwachung</t>
   </si>
   <si>
@@ -199,13 +187,128 @@
   </si>
   <si>
     <t>In diesem Abschnitt werden die Konsequenzen des Ereignisses "whispering" in Bezug auf das Lernen der Schüler:innen vorhergesagt.</t>
+  </si>
+  <si>
+    <t>eine kurze, verbale Anweisung geben</t>
+  </si>
+  <si>
+    <t>eine nonverbale Intervention</t>
+  </si>
+  <si>
+    <t>den Namen der störenden Person nennen</t>
+  </si>
+  <si>
+    <t>Beim Vorhersagen des Ereignis "whispering" liegt kein Fokus auf den Tätigkeiten und/oder Kognitionen der störenden Person, der Lehrkraft, der Schüler:innen und kein Fokus auf dem Material oder dem Klassenraum/Anderes.</t>
+  </si>
+  <si>
+    <t>Beim Vorhersagen des Ereignis "whispering" liegt der Fokus auf  auf den Tätigkeiten und/oder Kognitionen der störenden Person.</t>
+  </si>
+  <si>
+    <t>Beim Vorhersagen des Ereignis "whispering" liegt der Fokus auf  auf den Tätigkeiten und/oder Kognitionen der Lehrkraft.</t>
+  </si>
+  <si>
+    <t>Beim Vorhersagen des Ereignis "whispering" liegt der Fokus auf den Tätigkeiten und/oder Kognitionen der Schüler:innen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beim Vorhersagen des Ereignis "whispering" liegt der Fokus auf dem Material (z. B. Tafel, Lehrer:inmaterial, Arbeitsblätter. Etc.) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beim Vorhersagen des Ereignis "whispering" liegt der Fokus auf dem Klassenraum oder andere im Raum sich befindende Objekte (z. B. Uhr, Fenster, etc.) </t>
+  </si>
+  <si>
+    <t>den Namen der störenden Person in den Unterrichtsfluss einbeziehen oder die störende Person dazu auffordern, mitzumachen</t>
+  </si>
+  <si>
+    <t>Verhalten ignorieren</t>
+  </si>
+  <si>
+    <t>Klassenregeln besprechen</t>
+  </si>
+  <si>
+    <t>Beim Vorhersagen der Konsequenzen der Reaktion auf das Ereignis "whispering" liegt kein Fokus auf den Tätigkeiten und/oder Kognitionen der störenden Person, der Lehrkraft, der Schüler:innen und kein Fokus auf dem Material oder dem Klassenraum/Anderes.</t>
+  </si>
+  <si>
+    <t>Beim Vorhersagen der Konsequenzen der Reaktion auf das Ereignis "whispering" liegt der Fokus auf  auf den Tätigkeiten und/oder Kognitionen der störenden Person.</t>
+  </si>
+  <si>
+    <t>Beim Vorhersagen der Konsequenzen der Reaktion auf das Ereignis "whispering" liegt der Fokus auf  auf den Tätigkeiten und/oder Kognitionen der Lehrkraft.</t>
+  </si>
+  <si>
+    <t>Beim Vorhersagen der Konsequenzen der Reaktion auf das Ereignis "whispering" liegt der Fokus auf den Tätigkeiten und/oder Kognitionen der Schüler:innen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beim Vorhersagen der Konsequenzen der Reaktion auf das Ereignis "whispering" liegt der Fokus auf dem Material (z. B. Tafel, Lehrer:inmaterial, Arbeitsblätter. Etc.) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beim Vorhersagen der Konsequenzen der Reaktion auf das Ereignis "whispering" liegt der Fokus auf dem Klassenraum oder andere im Raum sich befindende Objekte (z. B. Uhr, Fenster, etc.) </t>
+  </si>
+  <si>
+    <t>Bewertung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.a. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Code </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1 ja / 0 nein)</t>
+    </r>
+  </si>
+  <si>
+    <t>0 / 1</t>
+  </si>
+  <si>
+    <t>Abruf von pädagogischen Fachwissen</t>
+  </si>
+  <si>
+    <t>Organisieren des wahrgenommenen Verhaltens</t>
+  </si>
+  <si>
+    <t>Die Lehrperson greift beim Begründen ihrer Reaktion auf episodisches Wissen zurück.</t>
+  </si>
+  <si>
+    <t>Die Lehrperson greift beim Begründen ihrer Reaktion auf Fachwissen zurück.</t>
+  </si>
+  <si>
+    <t>Die Lehrperson greift beim Begründen ihrer Reaktion auf pädagogisches Fachwissen zurück.</t>
+  </si>
+  <si>
+    <t>Die Lehrperson macht Aussagen über die Selbstüberwachung in Bezug auf ihr eigenes wahrgenommenes Verhalten.</t>
+  </si>
+  <si>
+    <t>Die Lehrperson macht Aussagen über die Struktur und die Organisation in Bezug auf ihr eigenes wahrgenommenes Verhalten.</t>
+  </si>
+  <si>
+    <t>Die Lehrperson macht Aussagen über die Struktur und die Organisation in Bezug auf ihren Aufmerksamkeitsfokus.</t>
+  </si>
+  <si>
+    <t>Die Lehrperson greift beim Begründen ihres Aufmerksamkeitsfokus auf episodisches Wissen zurück.</t>
+  </si>
+  <si>
+    <t>Die Lehrperson greift beim Begründen ihres Aufmerksamkeitsfokus auf Fachwissen zurück.</t>
+  </si>
+  <si>
+    <t>Die Lehrperson greift beim Begründen ihres Aufmerksamkeitsfokus auf pädagogisches Fachwissen zurück.</t>
+  </si>
+  <si>
+    <t>Die Lehrperson macht Aussagen über die Selbstüberwachung in Bezug auf ihren Aufmerksamkeitsfokus.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,8 +332,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,59 +354,37 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -323,10 +412,72 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -335,59 +486,104 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -396,7 +592,88 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -713,402 +990,745 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3636F8-4881-41FE-AA30-7E39DF0AE8CB}">
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44" style="11" customWidth="1"/>
-    <col min="3" max="3" width="38" style="11" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.33203125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="6.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="50.33203125" style="11" customWidth="1"/>
-    <col min="15" max="15" width="6.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="11.5546875" style="11"/>
+    <col min="1" max="1" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44" style="4" customWidth="1"/>
+    <col min="3" max="3" width="55.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.77734375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="35.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="6.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="50.33203125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="6.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" s="35" customFormat="1" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+    </row>
+    <row r="2" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="24"/>
+      <c r="C15" s="6"/>
+      <c r="E15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="24"/>
+      <c r="C16" s="6"/>
+      <c r="E16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="24"/>
+      <c r="C17" s="6"/>
+      <c r="E17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="24"/>
+      <c r="C18" s="6"/>
+      <c r="E18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="25"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="B20" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B30" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+      <c r="B31" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B32" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B33" s="24"/>
+      <c r="C33" s="6"/>
+      <c r="E33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B34" s="24"/>
+      <c r="C34" s="6"/>
+      <c r="E34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B35" s="24"/>
+      <c r="C35" s="6"/>
+      <c r="E35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B36" s="24"/>
+      <c r="C36" s="6"/>
+      <c r="E36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B37" s="24"/>
+      <c r="E37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="5">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+    </row>
+    <row r="41" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B41" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="5">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:19" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="5">
         <v>5</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="16"/>
-    </row>
-    <row r="4" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E4" s="12" t="s">
+    </row>
+    <row r="44" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="13"/>
+      <c r="B44" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="17">
+        <v>6</v>
+      </c>
+      <c r="E44" s="16"/>
+      <c r="G44" s="17"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E7" s="12" t="s">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B15" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
-    </row>
-    <row r="19" spans="2:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E20" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E21" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E23" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E24" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B27" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B28" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B29" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B30" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B31" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F32" s="15"/>
-    </row>
-    <row r="33" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="14"/>
-    </row>
-    <row r="35" spans="2:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="B35" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>55</v>
-      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A60" s="3"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A61" s="3"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A62" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/studies/Laborstudie ProVisioNET/SRI/Kodierschema_SRI.xlsx
+++ b/studies/Laborstudie ProVisioNET/SRI/Kodierschema_SRI.xlsx
@@ -993,8 +993,8 @@
   <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1018,7 +1018,7 @@
     <col min="17" max="16384" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="35" customFormat="1" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="35" customFormat="1" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
